--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1499.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1499.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.229100954470033</v>
+        <v>1.649487376213074</v>
       </c>
       <c r="B1">
-        <v>1.842251559441592</v>
+        <v>3.82296085357666</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.583642721176147</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>0.7643898725509644</v>
       </c>
       <c r="E1">
-        <v>0.992487541216427</v>
+        <v>0.8243256211280823</v>
       </c>
     </row>
   </sheetData>
